--- a/prueba forms.xlsx
+++ b/prueba forms.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicolas\Desktop\Trabajo\Pao\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pala\Desktop\trabajoPao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05AEEE42-B278-4427-AE4C-3BB4C5F994E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94B933CA-E21D-4BEE-91DA-3BCC5B59EE22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B01FFBD6-2E3A-47E4-AD34-F81D0C68B357}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="31">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -129,96 +129,6 @@
   </si>
   <si>
     <t>Pachon Sarmiento Ivan Geovanny</t>
-  </si>
-  <si>
-    <t>SEGURIDAD LAGUS LTDA</t>
-  </si>
-  <si>
-    <t>Yeison Alexander Ramirez Muriel</t>
-  </si>
-  <si>
-    <t>Guarda de seguridad</t>
-  </si>
-  <si>
-    <t>Red nacional</t>
-  </si>
-  <si>
-    <t>Ubaté ( Clinica saguil)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elkin Alberto Velandia Vargas </t>
-  </si>
-  <si>
-    <t>ESTE EXAMEN LO CANCELA LA EMPRESA</t>
-  </si>
-  <si>
-    <t>F. C. AUTOMOTRIZ S.A.S.</t>
-  </si>
-  <si>
-    <t>MARIA YOLANDA PEÑA</t>
-  </si>
-  <si>
-    <t>ASISTENTE ADIMISTRTATIVA</t>
-  </si>
-  <si>
-    <t>Audiometria</t>
-  </si>
-  <si>
-    <t>Abel Fonseca Pardo</t>
-  </si>
-  <si>
-    <t>Gerente</t>
-  </si>
-  <si>
-    <t>Abel Fernando Fonseca</t>
-  </si>
-  <si>
-    <t>Alisrador</t>
-  </si>
-  <si>
-    <t>Sebastian Rodriguez</t>
-  </si>
-  <si>
-    <t>Auxiliar de alistamiento</t>
-  </si>
-  <si>
-    <t>PRODUCTOS ALIMENTICIOS CALIXPES S.A.S.</t>
-  </si>
-  <si>
-    <t>Roniel Fleitas Palacios</t>
-  </si>
-  <si>
-    <t>Auxiliar de producción</t>
-  </si>
-  <si>
-    <t>Osteomuscular, Alimentos</t>
-  </si>
-  <si>
-    <t>Frotis de garganta, Koh uñas, Serologia VDRL en sangre, Coprologico</t>
-  </si>
-  <si>
-    <t>Inprosalud Madrid</t>
-  </si>
-  <si>
-    <t>SERVICIO DE ESTIBADORES DE COLOMBIA S.A.S.</t>
-  </si>
-  <si>
-    <t>Luis Martinez Andocilla</t>
-  </si>
-  <si>
-    <t>Manipulador de carga</t>
-  </si>
-  <si>
-    <t>Examen periodico</t>
-  </si>
-  <si>
-    <t>Osteomuscular, Alturas</t>
-  </si>
-  <si>
-    <t>Audiometria, Visiometria, Espirometria</t>
-  </si>
-  <si>
-    <t>Cuadro hematico, Glicemia Basal, Perfil lipidico</t>
   </si>
 </sst>
 </file>
@@ -240,6 +150,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -585,7 +496,7 @@
   <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -745,301 +656,115 @@
       <c r="S3" s="1"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>44685.683895636575</v>
-      </c>
-      <c r="B4" s="3">
-        <v>44686</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1005718459</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="A4" s="2"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>44685.685421319446</v>
-      </c>
-      <c r="B5" s="3">
-        <v>44686</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1073502127</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="A5" s="2"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>44685.687578969912</v>
-      </c>
-      <c r="B6" s="3">
-        <v>44686</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1032459911</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="A6" s="2"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="P6" s="1"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>44685.688221574077</v>
-      </c>
-      <c r="B7" s="3">
-        <v>44686</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="1">
-        <v>79294379</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="A7" s="2"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="P7" s="1"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>44685.689208020834</v>
-      </c>
-      <c r="B8" s="3">
-        <v>44686</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1019024304</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="A8" s="2"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="P8" s="1"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>44685.689871435185</v>
-      </c>
-      <c r="B9" s="3">
-        <v>44686</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" s="1">
-        <v>1015484719</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="A9" s="2"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="P9" s="1"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>44685.691511863421</v>
-      </c>
-      <c r="B10" s="3">
-        <v>44686</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" s="1">
-        <v>953470924062003</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="A10" s="2"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="P10" s="1"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>44686.313238078699</v>
-      </c>
-      <c r="B11" s="3">
-        <v>44686</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E11" s="1">
-        <v>1067976997</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="P11" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="A11" s="2"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="P11" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
